--- a/src/main/resources/mealTemplate.xlsx
+++ b/src/main/resources/mealTemplate.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Temp\samplemavonproj\Spoonacularmealplanner\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07F16D26-793B-4F98-9798-539D50342BC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B7294C2-5CF5-4A76-8CA0-23E3019DA297}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4536" yWindow="0" windowWidth="21012" windowHeight="8880" tabRatio="466" xr2:uid="{1DB6C97C-7605-42BB-9ED7-F8EF76F6A49A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="466" xr2:uid="{1DB6C97C-7605-42BB-9ED7-F8EF76F6A49A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="74">
   <si>
     <t>Type</t>
   </si>
@@ -54,9 +55,6 @@
     <t>Position</t>
   </si>
   <si>
-    <t>ID</t>
-  </si>
-  <si>
     <t>Day</t>
   </si>
   <si>
@@ -102,30 +100,15 @@
     <t>Asparagus</t>
   </si>
   <si>
-    <t>Pea Soup</t>
-  </si>
-  <si>
-    <t>Real Convenience Food</t>
-  </si>
-  <si>
     <t>https://spoonacular.com/recipeImages/716406-312x231.jpg</t>
   </si>
   <si>
-    <t>Cannellini Bean</t>
-  </si>
-  <si>
-    <t>Asparagus Salad </t>
-  </si>
-  <si>
     <t>Mushrooms</t>
   </si>
   <si>
     <t>Pasta with Garlic</t>
   </si>
   <si>
-    <t>Scallions</t>
-  </si>
-  <si>
     <t>Cauliflower &amp; Breadcrumbs</t>
   </si>
   <si>
@@ -144,36 +127,140 @@
     <t>BrownRice</t>
   </si>
   <si>
-    <t>Chicken Fajita</t>
-  </si>
-  <si>
     <t>Stuffed Bell</t>
   </si>
   <si>
-    <t>Pepper</t>
-  </si>
-  <si>
     <t>https://spoonacular.com/recipeImages/795751-312x231.jpg</t>
+  </si>
+  <si>
+    <t>ID1</t>
+  </si>
+  <si>
+    <t>ID2</t>
+  </si>
+  <si>
+    <t>ID3</t>
+  </si>
+  <si>
+    <t>roasted chicken</t>
+  </si>
+  <si>
+    <t>whole wheat flour</t>
+  </si>
+  <si>
+    <t>cooked long grain rice</t>
+  </si>
+  <si>
+    <t>cooked pasta</t>
+  </si>
+  <si>
+    <t>cooked wild rice</t>
+  </si>
+  <si>
+    <t>condensed cream of mushroom soup</t>
+  </si>
+  <si>
+    <t>low fat buttermilk</t>
+  </si>
+  <si>
+    <t>white cake mix</t>
+  </si>
+  <si>
+    <t>red food coloring</t>
+  </si>
+  <si>
+    <t>NutriTion Values</t>
+  </si>
+  <si>
+    <t>31.0 gms</t>
+  </si>
+  <si>
+    <t>100gms</t>
+  </si>
+  <si>
+    <t>25gms</t>
+  </si>
+  <si>
+    <t>100 gms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">              100gms</t>
+  </si>
+  <si>
+    <t>125gms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         100gms</t>
+  </si>
+  <si>
+    <t>130gms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            100gms</t>
+  </si>
+  <si>
+    <t>50gms</t>
+  </si>
+  <si>
+    <t>50 gms</t>
+  </si>
+  <si>
+    <t>300gms</t>
+  </si>
+  <si>
+    <t>104gms</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">             100gms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            100 gms</t>
+  </si>
+  <si>
+    <t>Monday</t>
+  </si>
+  <si>
+    <t>Tuesday</t>
+  </si>
+  <si>
+    <t>Wednesday</t>
+  </si>
+  <si>
+    <t>Thursday</t>
+  </si>
+  <si>
+    <t>Friday</t>
+  </si>
+  <si>
+    <t>Saturday</t>
+  </si>
+  <si>
+    <t>Sunday</t>
+  </si>
+  <si>
+    <t>Protein</t>
+  </si>
+  <si>
+    <t>Carbohydrates</t>
+  </si>
+  <si>
+    <t>Fat</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="8"/>
-      <color rgb="FF5F7A77"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -258,16 +345,50 @@
       <name val="Courier New"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF5F7A77"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF4FEFC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -290,69 +411,103 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFEDF0F3"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFEDF0F3"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -668,10 +823,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57F37CEC-91C1-42D9-9BF2-7005DAD42187}">
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:P9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -679,281 +834,466 @@
     <col min="1" max="1" width="11.77734375" customWidth="1"/>
     <col min="2" max="2" width="21.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="29" customWidth="1"/>
-    <col min="4" max="4" width="22.21875" customWidth="1"/>
-    <col min="5" max="5" width="10.33203125" customWidth="1"/>
-    <col min="6" max="6" width="20.77734375" customWidth="1"/>
-    <col min="7" max="7" width="28" customWidth="1"/>
-    <col min="8" max="8" width="20.109375" customWidth="1"/>
-    <col min="9" max="9" width="39" customWidth="1"/>
-    <col min="10" max="10" width="72.109375" customWidth="1"/>
+    <col min="4" max="6" width="22.21875" customWidth="1"/>
+    <col min="7" max="7" width="10.33203125" customWidth="1"/>
+    <col min="8" max="8" width="20.77734375" customWidth="1"/>
+    <col min="9" max="9" width="28" customWidth="1"/>
+    <col min="10" max="10" width="20.109375" customWidth="1"/>
+    <col min="11" max="11" width="39" customWidth="1"/>
+    <col min="12" max="12" width="83.77734375" customWidth="1"/>
+    <col min="13" max="13" width="21.44140625" customWidth="1"/>
+    <col min="14" max="14" width="13.77734375" customWidth="1"/>
+    <col min="15" max="15" width="12.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L1" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="2">
+        <v>11135</v>
+      </c>
+      <c r="F2" s="2">
+        <v>20040</v>
+      </c>
+      <c r="G2" s="8">
+        <v>716426</v>
+      </c>
+      <c r="H2" s="20">
+        <v>3</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="N2" t="s">
+        <v>49</v>
+      </c>
+      <c r="O2" t="s">
+        <v>60</v>
+      </c>
+      <c r="P2">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3" s="2">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="2">
+        <v>10016069</v>
+      </c>
+      <c r="F3" s="2">
+        <v>5114</v>
+      </c>
+      <c r="G3" s="8">
+        <v>11564</v>
+      </c>
+      <c r="H3" s="20">
+        <v>3</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="M3" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="N3" t="s">
+        <v>59</v>
+      </c>
+      <c r="O3" t="s">
+        <v>55</v>
+      </c>
+      <c r="P3">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B4" s="2">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="2">
+        <v>11011</v>
+      </c>
+      <c r="F4" s="2">
+        <v>10220445</v>
+      </c>
+      <c r="G4" s="8">
+        <v>20080</v>
+      </c>
+      <c r="H4" s="20">
+        <v>3</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="K4" t="s">
+        <v>39</v>
+      </c>
+      <c r="L4" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="M4" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="N4" t="s">
+        <v>49</v>
+      </c>
+      <c r="O4" t="s">
+        <v>48</v>
+      </c>
+      <c r="P4">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B5" s="2">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="2">
+        <v>20421</v>
+      </c>
+      <c r="F5" s="2">
+        <v>18137</v>
+      </c>
+      <c r="G5" s="8">
+        <v>782585</v>
+      </c>
+      <c r="H5" s="20">
+        <v>3</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="L5" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="M5" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="N5" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="O5" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="P5">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B6" s="2">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2">
         <v>0</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="J1" s="11" t="s">
-        <v>15</v>
+      <c r="D6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="2">
+        <v>20088</v>
+      </c>
+      <c r="F6" s="2">
+        <v>10220444</v>
+      </c>
+      <c r="G6" s="7">
+        <v>716429</v>
+      </c>
+      <c r="H6" s="20">
+        <v>3</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="L6" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="M6" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="N6" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="O6" t="s">
+        <v>53</v>
+      </c>
+      <c r="P6">
+        <v>325</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="3">
+    <row r="7" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="B7" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="3">
+      <c r="C7" s="2">
+        <v>0</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="2">
+        <v>6147</v>
+      </c>
+      <c r="F7" s="2">
+        <v>1088</v>
+      </c>
+      <c r="G7" s="7">
+        <v>795751</v>
+      </c>
+      <c r="H7" s="7">
+        <v>3</v>
+      </c>
+      <c r="I7" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="J7" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="K7" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="L7" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="M7" t="s">
+        <v>56</v>
+      </c>
+      <c r="N7" t="s">
+        <v>49</v>
+      </c>
+      <c r="O7" t="s">
+        <v>57</v>
+      </c>
+      <c r="P7">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B8" s="2">
         <v>1</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C8" s="2">
         <v>0</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D8" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8">
+        <v>1451111</v>
+      </c>
+      <c r="F8" s="14">
+        <v>6080</v>
+      </c>
+      <c r="G8" s="15">
+        <v>428278</v>
+      </c>
+      <c r="H8" s="21">
         <v>3</v>
       </c>
-      <c r="E2" s="9">
-        <v>716426</v>
-      </c>
-      <c r="F2" s="5">
-        <v>3</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" t="s">
-        <v>38</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="J2" s="6" t="s">
+      <c r="I8" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="J8" s="12" t="s">
         <v>21</v>
       </c>
+      <c r="K8" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="L8" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="M8" t="s">
+        <v>63</v>
+      </c>
+      <c r="N8" t="s">
+        <v>49</v>
+      </c>
+      <c r="O8" t="s">
+        <v>51</v>
+      </c>
+      <c r="P8">
+        <v>325</v>
+      </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="3">
-        <v>1</v>
-      </c>
-      <c r="C3" s="3">
-        <v>0</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="9">
-        <v>715415</v>
-      </c>
-      <c r="F3" s="5">
-        <v>3</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="3">
-        <v>3</v>
-      </c>
-      <c r="B4" s="3">
-        <v>1</v>
-      </c>
-      <c r="C4" s="3">
-        <v>0</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" s="9">
-        <v>716406</v>
-      </c>
-      <c r="F4" s="5">
-        <v>3</v>
-      </c>
-      <c r="G4" s="6" t="s">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="G9" s="9"/>
+      <c r="L9" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="3">
-        <v>4</v>
-      </c>
-      <c r="B5" s="3">
-        <v>1</v>
-      </c>
-      <c r="C5" s="3">
-        <v>0</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" s="9">
-        <v>782585</v>
-      </c>
-      <c r="F5" s="5">
-        <v>3</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="J5" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="3">
-        <v>5</v>
-      </c>
-      <c r="B6" s="3">
-        <v>1</v>
-      </c>
-      <c r="C6" s="3">
-        <v>0</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="8">
-        <v>716429</v>
-      </c>
-      <c r="F6" s="5">
-        <v>3</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="I6" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="3">
-        <v>1</v>
-      </c>
-      <c r="C7" s="3">
-        <v>0</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="8">
-        <v>795751</v>
-      </c>
-      <c r="F7" s="8">
-        <v>3</v>
-      </c>
-      <c r="G7" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="H7" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="I7" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="J7" s="20" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="3">
-        <v>7</v>
-      </c>
-      <c r="B8" s="3">
-        <v>1</v>
-      </c>
-      <c r="C8" s="3">
-        <v>0</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="E8" s="16">
-        <v>428278</v>
-      </c>
-      <c r="F8" s="3">
-        <v>3</v>
-      </c>
-      <c r="G8" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="H8" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="I8" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="J8" s="17" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E9" s="10"/>
+      <c r="N9" t="s">
+        <v>61</v>
+      </c>
+      <c r="P9">
+        <v>2000</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="J8" r:id="rId1" xr:uid="{4E0E5465-4F57-4233-A336-E7A2BA034DA8}"/>
-    <hyperlink ref="J7" r:id="rId2" xr:uid="{A2231460-6C6C-4D56-97ED-3EAD2E511186}"/>
+    <hyperlink ref="L8" r:id="rId1" xr:uid="{4E0E5465-4F57-4233-A336-E7A2BA034DA8}"/>
+    <hyperlink ref="L7" r:id="rId2" xr:uid="{A2231460-6C6C-4D56-97ED-3EAD2E511186}"/>
+    <hyperlink ref="L6" r:id="rId3" xr:uid="{35E99ED9-973E-48A9-99E0-B20D278EED64}"/>
+    <hyperlink ref="L5" r:id="rId4" xr:uid="{DC221141-061C-4503-80F7-FADC8FB9A91B}"/>
+    <hyperlink ref="L4" r:id="rId5" xr:uid="{C8169D71-F9F0-4628-8543-BBAC1FA26443}"/>
+    <hyperlink ref="L9" r:id="rId6" xr:uid="{5DEAD997-D84E-4030-8D0D-D4F22E125FFD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId7"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FEC8157-389D-46AC-9891-A156CA358E25}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="A1:C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>